--- a/output/relatorio.xlsx
+++ b/output/relatorio.xlsx
@@ -9,42 +9,39 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15" xml:space="preserve">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14" xml:space="preserve">
   <si>
     <t>ICMS</t>
   </si>
   <si>
-    <t>ICMS-Agencia</t>
-  </si>
-  <si>
-    <t>ICMS-Banco</t>
-  </si>
-  <si>
-    <t>ICMS-Cod-Tipo-Recolhimento</t>
-  </si>
-  <si>
-    <t>ICMS-Cpf-Responsavel</t>
-  </si>
-  <si>
-    <t>ICMS-Registro</t>
-  </si>
-  <si>
-    <t>ICMS-Data-Pagamento</t>
-  </si>
-  <si>
-    <t>ICMS-Data-Registro</t>
-  </si>
-  <si>
-    <t>ICMS-Nome-Tipo-Recolhimento</t>
-  </si>
-  <si>
-    <t>ICMS-Numero-Sequencial</t>
-  </si>
-  <si>
-    <t>ICMS-Unidade-Federação</t>
-  </si>
-  <si>
-    <t>ICMS-Valor-Total</t>
+    <t>AgenciaIcms</t>
+  </si>
+  <si>
+    <t>BancoIcms</t>
+  </si>
+  <si>
+    <t>CodigoTipoRecolhimentoIcms</t>
+  </si>
+  <si>
+    <t>CpfResponsavelRegistro</t>
+  </si>
+  <si>
+    <t>DataRegistro</t>
+  </si>
+  <si>
+    <t>HoraRegistro</t>
+  </si>
+  <si>
+    <t>NomeTipoRecolhimentoIcms</t>
+  </si>
+  <si>
+    <t>NumeroSequencialIcms</t>
+  </si>
+  <si>
+    <t>UFIcms</t>
+  </si>
+  <si>
+    <t>ValorTotalIcms</t>
   </si>
   <si>
     <t>Exoneração do ICMS</t>
@@ -186,18 +183,16 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="16.184831460674157"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="14.534831460674157"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="13.070224719101123"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="11.234831460674156"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="32.68483146067416"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="24.434831460674157"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="26.084831460674156"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="17.834831460674156"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="21.134831460674157"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="14.534831460674157"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="65.68483146067415"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="34.33483146067415"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="27.734831460674155"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="27.734831460674155"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="16.184831460674157"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="16.184831460674157"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="24.434831460674157"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="7.9348314606741575"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="14.534831460674157"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -237,12 +232,6 @@
       <c r="J3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="L3" s="6" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="5" t="n">
@@ -264,13 +253,13 @@
         <v>135104</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H4" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>0</v>
@@ -296,13 +285,13 @@
         <v>94137</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H5" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>178823</v>

--- a/output/relatorio.xlsx
+++ b/output/relatorio.xlsx
@@ -9,9 +9,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14" xml:space="preserve">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15" xml:space="preserve">
   <si>
     <t>ICMS</t>
+  </si>
+  <si>
+    <t>NumeroDI</t>
   </si>
   <si>
     <t>AgenciaIcms</t>
@@ -177,22 +180,23 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="13.070224719101123"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="11.234831460674156"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="32.68483146067416"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="26.084831460674156"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="17.834831460674156"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="14.534831460674157"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="65.68483146067415"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="24.434831460674157"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="7.9348314606741575"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="14.534831460674157"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="21.134831460674157"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="12.884831460674157"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.234831460674156"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="32.68483146067416"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="26.084831460674156"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="17.834831460674156"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="14.534831460674157"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="65.68483146067415"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="24.434831460674157"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="7.9348314606741575"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="14.534831460674157"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -232,68 +236,77 @@
       <c r="J3" s="6" t="s">
         <v>10</v>
       </c>
+      <c r="K3" s="6" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="5" t="n">
-        <v>0</v>
+        <v>1419362714</v>
       </c>
       <c r="B4" s="5" t="n">
         <v>0</v>
       </c>
       <c r="C4" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="D4" s="5" t="n">
+      <c r="E4" s="5" t="n">
         <v>26118103895</v>
       </c>
-      <c r="E4" s="5" t="n">
+      <c r="F4" s="5" t="n">
         <v>20141008</v>
       </c>
-      <c r="F4" s="5" t="n">
+      <c r="G4" s="5" t="n">
         <v>135104</v>
       </c>
-      <c r="G4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="5" t="n">
+      <c r="H4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="I4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="J4" s="5" t="n">
+      <c r="J4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" s="5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="5" t="n">
+        <v>1718658305</v>
+      </c>
+      <c r="B5" s="5" t="n">
         <v>641</v>
       </c>
-      <c r="B5" s="5" t="n">
+      <c r="C5" s="5" t="n">
         <v>341</v>
       </c>
-      <c r="C5" s="5" t="n">
+      <c r="D5" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="D5" s="5" t="n">
+      <c r="E5" s="5" t="n">
         <v>26118103895</v>
       </c>
-      <c r="E5" s="5" t="n">
+      <c r="F5" s="5" t="n">
         <v>20171030</v>
       </c>
-      <c r="F5" s="5" t="n">
+      <c r="G5" s="5" t="n">
         <v>94137</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="H5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="J5" s="5" t="n">
+      <c r="K5" s="5" t="n">
         <v>178823</v>
       </c>
     </row>
